--- a/Employees.xlsx
+++ b/Employees.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\00-MLSamples\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yousif Ennwa\Documents\GitHub\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8E492-11FF-4C3C-A996-002B9D9EC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewEmployees" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <sheet name="ConcatenatedSheet" sheetId="1" r:id="rId4"/>
     <sheet name="Names" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="21">
   <si>
     <t>Salary</t>
   </si>
@@ -84,11 +95,14 @@
   <si>
     <t>Salah</t>
   </si>
+  <si>
+    <t>EmpID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,6 +270,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -291,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,324 +514,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2">
         <v>2000</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3">
         <v>2300</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4">
         <v>2600</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5">
         <v>2900</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6">
         <v>3200</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7">
         <v>3500</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8">
         <v>3800</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9">
         <v>4100</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10">
         <v>4400</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>210</v>
+      </c>
+      <c r="B11">
         <v>4700</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>211</v>
+      </c>
+      <c r="B12">
         <v>5000</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>212</v>
+      </c>
+      <c r="B13">
         <v>5300</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>213</v>
+      </c>
+      <c r="B14">
         <v>5600</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>214</v>
+      </c>
+      <c r="B15">
         <v>5900</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>215</v>
+      </c>
+      <c r="B16">
         <v>6200</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>216</v>
+      </c>
+      <c r="B17">
         <v>6500</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>217</v>
+      </c>
+      <c r="B18">
         <v>6800</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>218</v>
+      </c>
+      <c r="B19">
         <v>7100</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>219</v>
+      </c>
+      <c r="B20">
         <v>7400</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>220</v>
+      </c>
+      <c r="B21">
         <v>7700</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>221</v>
+      </c>
+      <c r="B22">
         <v>8000</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>222</v>
+      </c>
+      <c r="B23">
         <v>8300</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>223</v>
+      </c>
+      <c r="B24">
         <v>8600</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>224</v>
+      </c>
+      <c r="B25">
         <v>8900</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>225</v>
+      </c>
+      <c r="B26">
         <v>9200</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>226</v>
+      </c>
+      <c r="B27">
         <v>9500</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>227</v>
+      </c>
+      <c r="B28">
         <v>9800</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>228</v>
+      </c>
+      <c r="B29">
         <v>10100</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>229</v>
+      </c>
+      <c r="B30">
         <v>10400</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>230</v>
+      </c>
+      <c r="B31">
         <v>20000</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>231</v>
+      </c>
+      <c r="B32">
         <v>23000</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>232</v>
+      </c>
+      <c r="B33">
         <v>26000</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>233</v>
+      </c>
+      <c r="B34">
         <v>29000</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>234</v>
+      </c>
+      <c r="B35">
         <v>32000</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>235</v>
+      </c>
+      <c r="B36">
         <v>35000</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>236</v>
+      </c>
+      <c r="B37">
         <v>38000</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>237</v>
+      </c>
+      <c r="B38">
         <v>41000</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>238</v>
+      </c>
+      <c r="B39">
         <v>44000</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -793,334 +958,452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2000</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2600</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>2900</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3200</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3500</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3800</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4100</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>4400</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>4700</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>5000</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>5300</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>5600</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>5900</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>6200</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>6500</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>6800</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>7100</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>7400</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>7700</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>8000</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>8300</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>8600</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>8900</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>9200</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>9500</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>9800</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>10100</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>10400</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>20000</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>23000</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>26000</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>29000</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>32000</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>35000</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>38000</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>41000</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>44000</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1331,10 +1614,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1890,10 +2173,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
